--- a/Industry/201612-201908/HKD/MILLION/Analysis_113_23.2 - Sports Apparel_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_113_23.2 - Sports Apparel_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="384" yWindow="384"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -28978,6 +28979,820 @@
     <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="10"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7169.088</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6857.026</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.353</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4401.441</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6913.377</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4432.318</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2909.899</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2784.63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.305</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1858.459</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2725.836</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-2.111</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1636.391</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-11.949</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42.224</v>
+      </c>
+      <c r="M3" t="n">
+        <v>39.428</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1273.904</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1268.946</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.389</v>
+      </c>
+      <c r="E4" t="n">
+        <v>711.67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1217.703</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-4.038</v>
+      </c>
+      <c r="H4" t="n">
+        <v>849.54</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19.373</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17.769</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.506</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16.169</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.614</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19.167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="n">
+        <v>826.838</v>
+      </c>
+      <c r="C5" t="n">
+        <v>769.154</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-6.976</v>
+      </c>
+      <c r="E5" t="n">
+        <v>532.38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>910.523</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="H5" t="n">
+        <v>661.852</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24.319</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.533</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.217</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.096</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14.932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="n">
+        <v>939.67</v>
+      </c>
+      <c r="C6" t="n">
+        <v>926.827</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.367</v>
+      </c>
+      <c r="E6" t="n">
+        <v>581.148</v>
+      </c>
+      <c r="F6" t="n">
+        <v>910.501</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.761</v>
+      </c>
+      <c r="H6" t="n">
+        <v>566.367</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2.543</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.107</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.516</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13.204</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="n">
+        <v>510.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>464.574</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-9.002000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>311.32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>530.96</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="H7" t="n">
+        <v>287.426</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-7.675</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.121</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.775</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.073</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" t="n">
+        <v>219.53</v>
+      </c>
+      <c r="C8" t="n">
+        <v>200.064</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-8.867000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>149.568</v>
+      </c>
+      <c r="F8" t="n">
+        <v>243.254</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.588</v>
+      </c>
+      <c r="H8" t="n">
+        <v>157.023</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.984</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.918</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.398</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.519</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" t="n">
+        <v>136.104</v>
+      </c>
+      <c r="C9" t="n">
+        <v>136.78</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E9" t="n">
+        <v>70.52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>106.945</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-21.813</v>
+      </c>
+      <c r="H9" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.983000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.547</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" t="n">
+        <v>94.107</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88.65300000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5.796</v>
+      </c>
+      <c r="E10" t="n">
+        <v>63.381</v>
+      </c>
+      <c r="F10" t="n">
+        <v>90.62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>75.53</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.169</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.313</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.311</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="n">
+        <v>109.929</v>
+      </c>
+      <c r="C11" t="n">
+        <v>80.249</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-26.999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.78</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50.407</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-37.187</v>
+      </c>
+      <c r="H11" t="n">
+        <v>39.661</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.408</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28.927</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.832</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.043</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23.996</v>
+      </c>
+      <c r="F12" t="n">
+        <v>35.365</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.096</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21.774</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-9.259</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.108</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27.782</v>
+      </c>
+      <c r="D13" t="n">
+        <v>62.391</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.812</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19.992</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-28.041</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21.534</v>
+      </c>
+      <c r="I13" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35.886</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-18.352</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18.651</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24.736</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-15.58</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.629</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-32.289</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.052</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.642</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-25.862</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.137</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.565</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15.208</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.539</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23.691</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" t="n">
+        <v>48.969</v>
+      </c>
+      <c r="C16" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-29.323</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20.947</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-15.081</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12.173</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-41.885</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="D17" t="n">
+        <v>73.48099999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="G17" t="n">
+        <v>146.634</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-83.786</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-98.565</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16069.552</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
